--- a/system_cases/SCR_cases/TwoSG.xlsx
+++ b/system_cases/SCR_cases/TwoSG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Git\Simplus-Grid-Tool\Simplus-Grid-Tool\system_cases\SCR_cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitRep\Simplus-Grid-Tool\system_cases\SCR_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46121610-DC8B-49C6-BC34-9CE0BC765A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2878FA60-5DC0-465E-94A1-86A678DAF2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -609,11 +609,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="4" t="s">
@@ -750,21 +750,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" customWidth="1"/>
+    <col min="2" max="2" width="31.54296875" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" customWidth="1"/>
+    <col min="7" max="7" width="22.453125" customWidth="1"/>
+    <col min="8" max="8" width="22.1796875" customWidth="1"/>
+    <col min="9" max="9" width="24.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -864,7 +864,7 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
@@ -943,12 +943,12 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1022,12 +1022,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1088,9 +1088,9 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/system_cases/SCR_cases/TwoSG.xlsx
+++ b/system_cases/SCR_cases/TwoSG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitRep\Simplus-Grid-Tool\system_cases\SCR_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2878FA60-5DC0-465E-94A1-86A678DAF2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18DFA63-2632-4EFF-A591-531B370BAE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -609,7 +609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -721,7 +721,7 @@
         <v>0.3</v>
       </c>
       <c r="G5">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -750,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/system_cases/SCR_cases/TwoSG.xlsx
+++ b/system_cases/SCR_cases/TwoSG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitRep\Simplus-Grid-Tool\system_cases\SCR_cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Simplus-Grid-Tool\system_cases\SCR_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18DFA63-2632-4EFF-A591-531B370BAE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA380006-85BE-4763-B2C0-94469C419918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -609,11 +609,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="4" t="s">
@@ -751,20 +751,20 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" customWidth="1"/>
-    <col min="2" max="2" width="31.54296875" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" customWidth="1"/>
-    <col min="4" max="4" width="15.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" customWidth="1"/>
-    <col min="7" max="7" width="22.453125" customWidth="1"/>
-    <col min="8" max="8" width="22.1796875" customWidth="1"/>
-    <col min="9" max="9" width="24.1796875" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -820,7 +820,7 @@
         <v>0.1</v>
       </c>
       <c r="F5" s="2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -843,7 +843,7 @@
         <v>0.3</v>
       </c>
       <c r="F6" s="2">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -864,7 +864,7 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
@@ -946,9 +946,9 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="7" max="7" width="14.81640625" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1022,12 +1022,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" customWidth="1"/>
-    <col min="4" max="4" width="15.81640625" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1084,13 +1084,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFCB373-2341-40B6-A375-7BA50357479A}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
